--- a/data/trans_dic/P70A_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70A_R_2023-Edad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.08980366308473746</v>
+        <v>0.08980366308473747</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3814180227943658</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1001954021060642</v>
+        <v>0.1218444930082984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0886686699167733</v>
+        <v>0.08464557019697397</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4498841776173114</v>
+        <v>0.4467785219731812</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6849997173985417</v>
+        <v>0.732212473010982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4535907514980232</v>
+        <v>0.4909905537692544</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2227657320848538</v>
+        <v>0.2227657320848537</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1330520097537544</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.122694347300261</v>
+        <v>0.1238831588198129</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07239762125524569</v>
+        <v>0.07226777090025011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1138428229382441</v>
+        <v>0.112720298595835</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3684060421591479</v>
+        <v>0.3699684842651899</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2316866364923297</v>
+        <v>0.2225947144355651</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2525607182945308</v>
+        <v>0.2594433639332013</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09548060803050697</v>
+        <v>0.09697993642948373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1203276880667491</v>
+        <v>0.1188737448638416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1217245172364094</v>
+        <v>0.1211348382766999</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2425279722818096</v>
+        <v>0.2514428745177003</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.241357681050965</v>
+        <v>0.2377384693029496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2250010279548451</v>
+        <v>0.217524329697818</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1997206223642652</v>
+        <v>0.196251042580505</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2007503130770641</v>
+        <v>0.200613278058658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2131198363572932</v>
+        <v>0.2166897068147196</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3535273574795044</v>
+        <v>0.3503855574066969</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.323934741971689</v>
+        <v>0.3219149330915347</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3192403967273409</v>
+        <v>0.3207325140957703</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.3849657953899784</v>
+        <v>0.3849657953899783</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3300253760983401</v>
+        <v>0.3300253760983402</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.3591274372308676</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2814103410167035</v>
+        <v>0.2869321141116811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2386183741907744</v>
+        <v>0.2396639654862172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2913966613822012</v>
+        <v>0.2875425408859889</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4960590944610877</v>
+        <v>0.4919011422268549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4232662479430362</v>
+        <v>0.4239338961491356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4277668857699035</v>
+        <v>0.4323387885873052</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.2268069744818846</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.236932162798627</v>
+        <v>0.2369321627986269</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.199348407097332</v>
+        <v>0.2017716208488792</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1917650620447975</v>
+        <v>0.1890974838857842</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2065687098525571</v>
+        <v>0.2097188510331663</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2934600790624768</v>
+        <v>0.294844461021269</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2658410617582903</v>
+        <v>0.2647789505778648</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2657387790742806</v>
+        <v>0.2685905170100523</v>
       </c>
     </row>
     <row r="22">
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1969</v>
+        <v>2394</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3565</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9250</v>
+        <v>9186</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13459</v>
+        <v>14387</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18238</v>
+        <v>19742</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9172</v>
+        <v>9260</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6014</v>
+        <v>6003</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17966</v>
+        <v>17789</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27539</v>
+        <v>27656</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19245</v>
+        <v>18490</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39858</v>
+        <v>40945</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10032</v>
+        <v>10189</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13306</v>
+        <v>13145</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26249</v>
+        <v>26122</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25481</v>
+        <v>26418</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26689</v>
+        <v>26289</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48520</v>
+        <v>46908</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28512</v>
+        <v>28017</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24319</v>
+        <v>24302</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56242</v>
+        <v>57184</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50469</v>
+        <v>50021</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39241</v>
+        <v>38997</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>84247</v>
+        <v>84641</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21606</v>
+        <v>22030</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16266</v>
+        <v>16337</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>42236</v>
+        <v>41678</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>38086</v>
+        <v>37767</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28853</v>
+        <v>28898</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>62002</v>
+        <v>62665</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>83709</v>
+        <v>84727</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>77204</v>
+        <v>76130</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>169906</v>
+        <v>172497</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>123228</v>
+        <v>123810</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>107027</v>
+        <v>106600</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>218574</v>
+        <v>220919</v>
       </c>
     </row>
     <row r="28">
